--- a/docs/componentes.xlsx
+++ b/docs/componentes.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
     <sheet name="SOA_Principles" sheetId="4" r:id="rId3"/>
     <sheet name="Arquitectura" sheetId="2" r:id="rId4"/>
+    <sheet name="PROTO" sheetId="5" r:id="rId5"/>
+    <sheet name="DataModel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>EJB Name</t>
   </si>
@@ -123,13 +125,1256 @@
     <t>createNewVersion
 createVersionFromPrevious
 listVersions</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Relacion</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>Servicios utilizados por la aplicación</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Version de un servicio</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Servicios del Portafolio</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Capacidades de un servicio</t>
+  </si>
+  <si>
+    <t>Operaciones de un servicio</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operacion.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operación.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + operacion.nombreTecnico } }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + capacidad.nombre + capacidad.descripcion } + objeto.id + entidad.id + verbo }</t>
+    </r>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Portafolios de Servicios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portafolio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + portafolio.proposito + portafolio.alcance + portafolio.nombre + responsabilidad: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usuario.login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>desde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + hasta } }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portfolio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + portafolio.nombre + serviciosasignados: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.codigo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + versiones:{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + servicio.nombre + servicio.descripcion + historiacambio: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estado.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + estado.fecha + usuario.login + estado.descripcion_cambio} + origen: servicio.version.id } + servicio.estadoactual }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aplicación.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.codigo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } + aplicación.nombre }</t>
+    </r>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Catalogo de requerimientos</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>requerimiento.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>version.numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + titulo + especificacion + estados: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estado.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>estado.desde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + estado.hasta + usuario.login } + atributos: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atributo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + atributo.valor } } + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repositorio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catalogo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + catalogo.titulo + requerimientos: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>requerimiento.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } + baseline: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>baseline.version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + configuracion: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>requerimiento.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>version.numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } } }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catalogo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>requerimiento.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } }</t>
+    </r>
+  </si>
+  <si>
+    <t>Trazabilidad Requerimiento vs Servicios</t>
+  </si>
+  <si>
+    <t>Trazabilidad Requerimiento vs Capacidad del Servicio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + requerimiento: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catalogo.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>requerimiento.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } }</t>
+    </r>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Mensajeria Funcional del Servicio</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servicio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>capacidad.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + mensajeria: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipomensaje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + elemento: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + nombre + descripcion + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipodatonegocio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } } } }</t>
+    </r>
+  </si>
+  <si>
+    <t>Objetos de Negocio</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + nombre + descripcion + atributos: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + nombre + descripcion + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipodatonegocio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } + objetopadre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objetonegocio.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>T1: OBJETONEGOCIO (#ID, +NOMBRE, -DESCRIPCION
+T2: TIPORELACIONOBJETONEGOCIO
+T3: TIPOROLRELACIONOBJETONEGOCIO
+T4: RELACIONOBJETONEGOCIO
+T5: ROLERELACIONOBJETONEGOCIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +1397,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +1425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,6 +1477,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -283,6 +1572,66 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="523875" y="390525"/>
+          <a:ext cx="6724650" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -577,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,4 +2127,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="38.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>